--- a/Experimentos/IP/IP prueba 5 cuant WCE 19092019.xlsx
+++ b/Experimentos/IP/IP prueba 5 cuant WCE 19092019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA5807D-5BE7-4232-8B46-F1B07113280A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819E212-0258-4167-8EC4-76BD35BF7741}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Curva</t>
   </si>
@@ -60,6 +60,9 @@
   <si>
     <t>V (para 25ug)</t>
   </si>
+  <si>
+    <t>V(1mg)</t>
+  </si>
 </sst>
 </file>
 
@@ -91,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +119,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -129,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -138,13 +147,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,10 +1520,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1521,11 +1531,11 @@
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1743,8 +1753,8 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="10" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1753,8 +1763,11 @@
       <c r="E35" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F35" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -1765,8 +1778,12 @@
         <f>25/D36</f>
         <v>5.5609630772441863</v>
       </c>
+      <c r="F36">
+        <f>1000/D36</f>
+        <v>222.43852308976744</v>
+      </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>5</v>
       </c>
@@ -1777,8 +1794,12 @@
         <f t="shared" ref="E37:E41" si="3">25/D37</f>
         <v>5.3069463469847102</v>
       </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F41" si="4">1000/D37</f>
+        <v>212.2778538793884</v>
+      </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>9</v>
       </c>
@@ -1789,8 +1810,12 @@
         <f t="shared" si="3"/>
         <v>5.6674109362593086</v>
       </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>226.69643745037234</v>
+      </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -1801,8 +1826,12 @@
         <f t="shared" si="3"/>
         <v>5.2313262838537868</v>
       </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>209.25305135415147</v>
+      </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>7</v>
       </c>
@@ -1813,8 +1842,12 @@
         <f t="shared" si="3"/>
         <v>5.52747292229202</v>
       </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>221.0989168916808</v>
+      </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>8</v>
       </c>
@@ -1824,6 +1857,10 @@
       <c r="E41" s="7">
         <f t="shared" si="3"/>
         <v>5.9464712925773293</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>237.85885170309317</v>
       </c>
     </row>
   </sheetData>
